--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slamf6-Slamf6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slamf6-Slamf6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +531,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.006402000000000001</v>
+        <v>0.003073</v>
       </c>
       <c r="H2">
-        <v>0.019206</v>
+        <v>0.009219</v>
       </c>
       <c r="I2">
-        <v>0.002767014125804489</v>
+        <v>0.0009244408256091867</v>
       </c>
       <c r="J2">
-        <v>0.002767014125804489</v>
+        <v>0.0009244408256091868</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +549,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.006402000000000001</v>
+        <v>0.003073</v>
       </c>
       <c r="N2">
-        <v>0.019206</v>
+        <v>0.009219</v>
       </c>
       <c r="O2">
-        <v>0.002767014125804489</v>
+        <v>0.0009244408256091867</v>
       </c>
       <c r="P2">
-        <v>0.002767014125804489</v>
+        <v>0.0009244408256091868</v>
       </c>
       <c r="Q2">
-        <v>4.098560400000001E-05</v>
+        <v>9.443328999999999E-06</v>
       </c>
       <c r="R2">
-        <v>0.000368870436</v>
+        <v>8.498996099999999E-05</v>
       </c>
       <c r="S2">
-        <v>7.656367172401581E-06</v>
+        <v>8.545908400529948E-07</v>
       </c>
       <c r="T2">
-        <v>7.656367172401579E-06</v>
+        <v>8.54590840052995E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +578,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +593,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.006402000000000001</v>
+        <v>0.003073</v>
       </c>
       <c r="H3">
-        <v>0.019206</v>
+        <v>0.009219</v>
       </c>
       <c r="I3">
-        <v>0.002767014125804489</v>
+        <v>0.0009244408256091867</v>
       </c>
       <c r="J3">
-        <v>0.002767014125804489</v>
+        <v>0.0009244408256091868</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +617,22 @@
         <v>0.184458</v>
       </c>
       <c r="O3">
-        <v>0.02657491885960868</v>
+        <v>0.0184966380095693</v>
       </c>
       <c r="P3">
-        <v>0.02657491885960868</v>
+        <v>0.0184966380095693</v>
       </c>
       <c r="Q3">
-        <v>0.000393633372</v>
+        <v>0.000188946478</v>
       </c>
       <c r="R3">
-        <v>0.003542700348</v>
+        <v>0.001700518302</v>
       </c>
       <c r="S3">
-        <v>7.353317587664535E-05</v>
+        <v>1.70990473125605E-05</v>
       </c>
       <c r="T3">
-        <v>7.353317587664534E-05</v>
+        <v>1.709904731256051E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +640,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,108 +655,108 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.006402000000000001</v>
+        <v>0.003073</v>
       </c>
       <c r="H4">
-        <v>0.019206</v>
+        <v>0.009219</v>
       </c>
       <c r="I4">
-        <v>0.002767014125804489</v>
+        <v>0.0009244408256091867</v>
       </c>
       <c r="J4">
-        <v>0.002767014125804489</v>
+        <v>0.0009244408256091868</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02762366666666667</v>
+        <v>3.259612666666667</v>
       </c>
       <c r="N4">
-        <v>0.082871</v>
+        <v>9.778838</v>
       </c>
       <c r="O4">
-        <v>0.0119392495896878</v>
+        <v>0.9805789211648215</v>
       </c>
       <c r="P4">
-        <v>0.01193924958968779</v>
+        <v>0.9805789211648216</v>
       </c>
       <c r="Q4">
-        <v>0.000176846714</v>
+        <v>0.01001678972466667</v>
       </c>
       <c r="R4">
-        <v>0.001591620426</v>
+        <v>0.09015110752200001</v>
       </c>
       <c r="S4">
-        <v>3.303607226617158E-05</v>
+        <v>0.0009064871874565731</v>
       </c>
       <c r="T4">
-        <v>3.303607226617157E-05</v>
+        <v>0.0009064871874565734</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.06148599999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.184458</v>
+      </c>
+      <c r="I5">
+        <v>0.0184966380095693</v>
+      </c>
+      <c r="J5">
+        <v>0.0184966380095693</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.006402000000000001</v>
-      </c>
-      <c r="H5">
-        <v>0.019206</v>
-      </c>
-      <c r="I5">
-        <v>0.002767014125804489</v>
-      </c>
-      <c r="J5">
-        <v>0.002767014125804489</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>2.218173666666666</v>
+        <v>0.003073</v>
       </c>
       <c r="N5">
-        <v>6.654521</v>
+        <v>0.009219</v>
       </c>
       <c r="O5">
-        <v>0.9587188174248992</v>
+        <v>0.0009244408256091867</v>
       </c>
       <c r="P5">
-        <v>0.9587188174248991</v>
+        <v>0.0009244408256091868</v>
       </c>
       <c r="Q5">
-        <v>0.014200747814</v>
+        <v>0.000188946478</v>
       </c>
       <c r="R5">
-        <v>0.127806730326</v>
+        <v>0.001700518302</v>
       </c>
       <c r="S5">
-        <v>0.002652788510489271</v>
+        <v>1.70990473125605E-05</v>
       </c>
       <c r="T5">
-        <v>0.00265278851048927</v>
+        <v>1.709904731256051E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +764,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,40 +785,40 @@
         <v>0.184458</v>
       </c>
       <c r="I6">
-        <v>0.02657491885960868</v>
+        <v>0.0184966380095693</v>
       </c>
       <c r="J6">
-        <v>0.02657491885960868</v>
+        <v>0.0184966380095693</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.006402000000000001</v>
+        <v>0.06148599999999999</v>
       </c>
       <c r="N6">
-        <v>0.019206</v>
+        <v>0.184458</v>
       </c>
       <c r="O6">
-        <v>0.002767014125804489</v>
+        <v>0.0184966380095693</v>
       </c>
       <c r="P6">
-        <v>0.002767014125804489</v>
+        <v>0.0184966380095693</v>
       </c>
       <c r="Q6">
-        <v>0.000393633372</v>
+        <v>0.003780528195999999</v>
       </c>
       <c r="R6">
-        <v>0.003542700348</v>
+        <v>0.03402475376399999</v>
       </c>
       <c r="S6">
-        <v>7.353317587664535E-05</v>
+        <v>0.0003421256176570436</v>
       </c>
       <c r="T6">
-        <v>7.353317587664534E-05</v>
+        <v>0.0003421256176570437</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +826,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,164 +847,164 @@
         <v>0.184458</v>
       </c>
       <c r="I7">
-        <v>0.02657491885960868</v>
+        <v>0.0184966380095693</v>
       </c>
       <c r="J7">
-        <v>0.02657491885960868</v>
+        <v>0.0184966380095693</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.06148599999999999</v>
+        <v>3.259612666666667</v>
       </c>
       <c r="N7">
-        <v>0.184458</v>
+        <v>9.778838</v>
       </c>
       <c r="O7">
-        <v>0.02657491885960868</v>
+        <v>0.9805789211648215</v>
       </c>
       <c r="P7">
-        <v>0.02657491885960868</v>
+        <v>0.9805789211648216</v>
       </c>
       <c r="Q7">
-        <v>0.003780528195999999</v>
+        <v>0.2004205444226667</v>
       </c>
       <c r="R7">
-        <v>0.03402475376399999</v>
+        <v>1.803784899804</v>
       </c>
       <c r="S7">
-        <v>0.0007062263123947852</v>
+        <v>0.01813741334459969</v>
       </c>
       <c r="T7">
-        <v>0.0007062263123947852</v>
+        <v>0.0181374133445997</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06148599999999999</v>
+        <v>3.259612666666667</v>
       </c>
       <c r="H8">
-        <v>0.184458</v>
+        <v>9.778838</v>
       </c>
       <c r="I8">
-        <v>0.02657491885960868</v>
+        <v>0.9805789211648215</v>
       </c>
       <c r="J8">
-        <v>0.02657491885960868</v>
+        <v>0.9805789211648216</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.02762366666666667</v>
+        <v>0.003073</v>
       </c>
       <c r="N8">
-        <v>0.082871</v>
+        <v>0.009219</v>
       </c>
       <c r="O8">
-        <v>0.0119392495896878</v>
+        <v>0.0009244408256091867</v>
       </c>
       <c r="P8">
-        <v>0.01193924958968779</v>
+        <v>0.0009244408256091868</v>
       </c>
       <c r="Q8">
-        <v>0.001698468768666667</v>
+        <v>0.01001678972466667</v>
       </c>
       <c r="R8">
-        <v>0.015286218918</v>
+        <v>0.09015110752200001</v>
       </c>
       <c r="S8">
-        <v>0.0003172845890905694</v>
+        <v>0.0009064871874565731</v>
       </c>
       <c r="T8">
-        <v>0.0003172845890905694</v>
+        <v>0.0009064871874565734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.259612666666667</v>
+      </c>
+      <c r="H9">
+        <v>9.778838</v>
+      </c>
+      <c r="I9">
+        <v>0.9805789211648215</v>
+      </c>
+      <c r="J9">
+        <v>0.9805789211648216</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
+      <c r="M9">
         <v>0.06148599999999999</v>
       </c>
-      <c r="H9">
+      <c r="N9">
         <v>0.184458</v>
       </c>
-      <c r="I9">
-        <v>0.02657491885960868</v>
-      </c>
-      <c r="J9">
-        <v>0.02657491885960868</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.218173666666666</v>
-      </c>
-      <c r="N9">
-        <v>6.654521</v>
-      </c>
       <c r="O9">
-        <v>0.9587188174248992</v>
+        <v>0.0184966380095693</v>
       </c>
       <c r="P9">
-        <v>0.9587188174248991</v>
+        <v>0.0184966380095693</v>
       </c>
       <c r="Q9">
-        <v>0.1363866260686666</v>
+        <v>0.2004205444226667</v>
       </c>
       <c r="R9">
-        <v>1.227479634618</v>
+        <v>1.803784899804</v>
       </c>
       <c r="S9">
-        <v>0.02547787478224669</v>
+        <v>0.01813741334459969</v>
       </c>
       <c r="T9">
-        <v>0.02547787478224668</v>
+        <v>0.0181374133445997</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,495 +1012,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.02762366666666667</v>
+        <v>3.259612666666667</v>
       </c>
       <c r="H10">
-        <v>0.082871</v>
+        <v>9.778838</v>
       </c>
       <c r="I10">
-        <v>0.0119392495896878</v>
+        <v>0.9805789211648215</v>
       </c>
       <c r="J10">
-        <v>0.01193924958968779</v>
+        <v>0.9805789211648216</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.006402000000000001</v>
+        <v>3.259612666666667</v>
       </c>
       <c r="N10">
-        <v>0.019206</v>
+        <v>9.778838</v>
       </c>
       <c r="O10">
-        <v>0.002767014125804489</v>
+        <v>0.9805789211648215</v>
       </c>
       <c r="P10">
-        <v>0.002767014125804489</v>
+        <v>0.9805789211648216</v>
       </c>
       <c r="Q10">
-        <v>0.000176846714</v>
+        <v>10.62507473669378</v>
       </c>
       <c r="R10">
-        <v>0.001591620426</v>
+        <v>95.62567263024401</v>
       </c>
       <c r="S10">
-        <v>3.303607226617158E-05</v>
+        <v>0.9615350206327652</v>
       </c>
       <c r="T10">
-        <v>3.303607226617157E-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.02762366666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.082871</v>
-      </c>
-      <c r="I11">
-        <v>0.0119392495896878</v>
-      </c>
-      <c r="J11">
-        <v>0.01193924958968779</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.06148599999999999</v>
-      </c>
-      <c r="N11">
-        <v>0.184458</v>
-      </c>
-      <c r="O11">
-        <v>0.02657491885960868</v>
-      </c>
-      <c r="P11">
-        <v>0.02657491885960868</v>
-      </c>
-      <c r="Q11">
-        <v>0.001698468768666667</v>
-      </c>
-      <c r="R11">
-        <v>0.015286218918</v>
-      </c>
-      <c r="S11">
-        <v>0.0003172845890905694</v>
-      </c>
-      <c r="T11">
-        <v>0.0003172845890905694</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.02762366666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.082871</v>
-      </c>
-      <c r="I12">
-        <v>0.0119392495896878</v>
-      </c>
-      <c r="J12">
-        <v>0.01193924958968779</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.02762366666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.082871</v>
-      </c>
-      <c r="O12">
-        <v>0.0119392495896878</v>
-      </c>
-      <c r="P12">
-        <v>0.01193924958968779</v>
-      </c>
-      <c r="Q12">
-        <v>0.0007630669601111111</v>
-      </c>
-      <c r="R12">
-        <v>0.006867602641</v>
-      </c>
-      <c r="S12">
-        <v>0.0001425456807648602</v>
-      </c>
-      <c r="T12">
-        <v>0.0001425456807648602</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.02762366666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.082871</v>
-      </c>
-      <c r="I13">
-        <v>0.0119392495896878</v>
-      </c>
-      <c r="J13">
-        <v>0.01193924958968779</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.218173666666666</v>
-      </c>
-      <c r="N13">
-        <v>6.654521</v>
-      </c>
-      <c r="O13">
-        <v>0.9587188174248992</v>
-      </c>
-      <c r="P13">
-        <v>0.9587188174248991</v>
-      </c>
-      <c r="Q13">
-        <v>0.06127408997677777</v>
-      </c>
-      <c r="R13">
-        <v>0.551466809791</v>
-      </c>
-      <c r="S13">
-        <v>0.0114463832475662</v>
-      </c>
-      <c r="T13">
-        <v>0.01144638324756619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2.218173666666666</v>
-      </c>
-      <c r="H14">
-        <v>6.654521</v>
-      </c>
-      <c r="I14">
-        <v>0.9587188174248992</v>
-      </c>
-      <c r="J14">
-        <v>0.9587188174248991</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.006402000000000001</v>
-      </c>
-      <c r="N14">
-        <v>0.019206</v>
-      </c>
-      <c r="O14">
-        <v>0.002767014125804489</v>
-      </c>
-      <c r="P14">
-        <v>0.002767014125804489</v>
-      </c>
-      <c r="Q14">
-        <v>0.014200747814</v>
-      </c>
-      <c r="R14">
-        <v>0.127806730326</v>
-      </c>
-      <c r="S14">
-        <v>0.002652788510489271</v>
-      </c>
-      <c r="T14">
-        <v>0.00265278851048927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2.218173666666666</v>
-      </c>
-      <c r="H15">
-        <v>6.654521</v>
-      </c>
-      <c r="I15">
-        <v>0.9587188174248992</v>
-      </c>
-      <c r="J15">
-        <v>0.9587188174248991</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.06148599999999999</v>
-      </c>
-      <c r="N15">
-        <v>0.184458</v>
-      </c>
-      <c r="O15">
-        <v>0.02657491885960868</v>
-      </c>
-      <c r="P15">
-        <v>0.02657491885960868</v>
-      </c>
-      <c r="Q15">
-        <v>0.1363866260686666</v>
-      </c>
-      <c r="R15">
-        <v>1.227479634618</v>
-      </c>
-      <c r="S15">
-        <v>0.02547787478224669</v>
-      </c>
-      <c r="T15">
-        <v>0.02547787478224668</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.218173666666666</v>
-      </c>
-      <c r="H16">
-        <v>6.654521</v>
-      </c>
-      <c r="I16">
-        <v>0.9587188174248992</v>
-      </c>
-      <c r="J16">
-        <v>0.9587188174248991</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.02762366666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.082871</v>
-      </c>
-      <c r="O16">
-        <v>0.0119392495896878</v>
-      </c>
-      <c r="P16">
-        <v>0.01193924958968779</v>
-      </c>
-      <c r="Q16">
-        <v>0.06127408997677777</v>
-      </c>
-      <c r="R16">
-        <v>0.551466809791</v>
-      </c>
-      <c r="S16">
-        <v>0.0114463832475662</v>
-      </c>
-      <c r="T16">
-        <v>0.01144638324756619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.218173666666666</v>
-      </c>
-      <c r="H17">
-        <v>6.654521</v>
-      </c>
-      <c r="I17">
-        <v>0.9587188174248992</v>
-      </c>
-      <c r="J17">
-        <v>0.9587188174248991</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>2.218173666666666</v>
-      </c>
-      <c r="N17">
-        <v>6.654521</v>
-      </c>
-      <c r="O17">
-        <v>0.9587188174248992</v>
-      </c>
-      <c r="P17">
-        <v>0.9587188174248991</v>
-      </c>
-      <c r="Q17">
-        <v>4.920294415493443</v>
-      </c>
-      <c r="R17">
-        <v>44.282649739441</v>
-      </c>
-      <c r="S17">
-        <v>0.9191417708845971</v>
-      </c>
-      <c r="T17">
-        <v>0.9191417708845969</v>
+        <v>0.9615350206327654</v>
       </c>
     </row>
   </sheetData>
